--- a/Simulations/Pre-emptive/DDT - 3876644 - covid.xlsx
+++ b/Simulations/Pre-emptive/DDT - 3876644 - covid.xlsx
@@ -386,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,7 +397,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,6 +904,12 @@
       <c r="B36">
         <v>0.2</v>
       </c>
+      <c r="C36">
+        <v>514</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -912,6 +918,12 @@
       <c r="B37">
         <v>0.4</v>
       </c>
+      <c r="C37">
+        <v>527</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -920,6 +932,12 @@
       <c r="B38">
         <v>0.6</v>
       </c>
+      <c r="C38">
+        <v>503</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -928,6 +946,12 @@
       <c r="B39">
         <v>0.8</v>
       </c>
+      <c r="C39">
+        <v>487</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -936,6 +960,12 @@
       <c r="B40">
         <v>1</v>
       </c>
+      <c r="C40">
+        <v>305</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -944,6 +974,12 @@
       <c r="B41">
         <v>1.2</v>
       </c>
+      <c r="C41">
+        <v>451</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -952,6 +988,12 @@
       <c r="B42">
         <v>1.4</v>
       </c>
+      <c r="C42">
+        <v>423</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -960,6 +1002,12 @@
       <c r="B43">
         <v>1.6</v>
       </c>
+      <c r="C43">
+        <v>388</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -968,6 +1016,12 @@
       <c r="B44">
         <v>1.8</v>
       </c>
+      <c r="C44">
+        <v>392</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -977,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="D45">
         <v>1</v>
